--- a/organisation/pflichtenheft/netzzugehörigkeit2.xlsx
+++ b/organisation/pflichtenheft/netzzugehörigkeit2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schueler\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="11820"/>
   </bookViews>
@@ -287,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,50 +579,50 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
